--- a/company.xlsx
+++ b/company.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>企业</t>
   </si>
@@ -170,14 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -185,6 +179,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -207,23 +207,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -247,14 +232,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -553,6 +540,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -585,15 +573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -604,7 +591,7 @@
     <col min="9" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -648,7 +635,7 @@
       </c>
       <c r="F2" s="1">
         <f>E2/C2</f>
-        <v>0.216704698379264</v>
+        <v>0.21670469837926395</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
@@ -657,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -671,17 +658,17 @@
         <v>95.44</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F27" si="0">E3/C3</f>
-        <v>0.222123955593828</v>
+        <f t="shared" ref="F3" si="0">E3/C3</f>
+        <v>0.2221239555938278</v>
       </c>
       <c r="G3" s="2">
-        <v>4.6421</v>
+        <v>4.6421000000000001</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -695,14 +682,14 @@
         <v>169.78</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/C4</f>
-        <v>0.230294480691236</v>
+        <f t="shared" ref="F4:F27" si="1">E4/C4</f>
+        <v>0.23029448069123612</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -716,14 +703,14 @@
         <v>166.04</v>
       </c>
       <c r="F5" s="1">
-        <f>E5/C5</f>
-        <v>0.158879309519936</v>
+        <f t="shared" si="1"/>
+        <v>0.15887930951993648</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -737,14 +724,14 @@
         <v>69.95</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/C6</f>
-        <v>0.179940320008232</v>
+        <f t="shared" si="1"/>
+        <v>0.17994032000823174</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -758,8 +745,8 @@
         <v>68.5</v>
       </c>
       <c r="F7" s="1">
-        <f>E7/C7</f>
-        <v>0.275432247687977</v>
+        <f t="shared" si="1"/>
+        <v>0.27543224768797747</v>
       </c>
       <c r="G7">
         <v>2.66</v>
@@ -768,31 +755,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8">
-        <v>35.2</v>
-      </c>
-      <c r="C8">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="1">
-        <f>E8/C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1687.88</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1" t="e">
-        <f>E9/C9</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -806,14 +793,14 @@
         <v>99.83</v>
       </c>
       <c r="F10" s="1">
-        <f>E10/C10</f>
-        <v>0.205381940872714</v>
+        <f t="shared" si="1"/>
+        <v>0.2053819408727138</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -821,20 +808,20 @@
         <v>1150.3</v>
       </c>
       <c r="C11">
-        <v>610.93</v>
+        <v>610.92999999999995</v>
       </c>
       <c r="E11">
         <v>5.44</v>
       </c>
       <c r="F11" s="1">
-        <f>E11/C11</f>
-        <v>0.00890445713911578</v>
+        <f t="shared" si="1"/>
+        <v>8.9044571391157755E-3</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -848,14 +835,14 @@
         <v>4.25</v>
       </c>
       <c r="F12" s="1">
-        <f>E12/C12</f>
-        <v>0.210813492063492</v>
+        <f t="shared" si="1"/>
+        <v>0.21081349206349206</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -869,28 +856,28 @@
         <v>6.89</v>
       </c>
       <c r="F13" s="1">
-        <f>E13/C13</f>
-        <v>0.177029804727646</v>
+        <f t="shared" si="1"/>
+        <v>0.17702980472764643</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1" t="e">
-        <f>E14/C14</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>1190.025</v>
+        <v>1190.0250000000001</v>
       </c>
       <c r="C15">
         <v>155.35</v>
@@ -899,8 +886,8 @@
         <v>38.67</v>
       </c>
       <c r="F15" s="1">
-        <f>E15/C15</f>
-        <v>0.248921789507564</v>
+        <f t="shared" si="1"/>
+        <v>0.24892178950756358</v>
       </c>
       <c r="G15" s="2">
         <v>2.5</v>
@@ -909,12 +896,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>557.58</v>
+        <v>557.58000000000004</v>
       </c>
       <c r="C16">
         <v>99.92</v>
@@ -923,14 +910,14 @@
         <v>30.48</v>
       </c>
       <c r="F16" s="1">
-        <f>E16/C16</f>
-        <v>0.305044035228182</v>
+        <f t="shared" si="1"/>
+        <v>0.30504403522818252</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -939,14 +926,14 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="e">
-        <f>E17/C17</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -957,18 +944,18 @@
         <v>5.49</v>
       </c>
       <c r="E18">
-        <v>0.0083</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="F18" s="1">
-        <f>E18/C18</f>
-        <v>0.00151183970856102</v>
+        <f t="shared" si="1"/>
+        <v>1.51183970856102E-3</v>
       </c>
       <c r="G18" s="2"/>
       <c r="I18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -979,15 +966,15 @@
         <v>4.68</v>
       </c>
       <c r="E19">
-        <v>6.2e-5</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="F19" s="1">
-        <f>E19/C19</f>
-        <v>1.32478632478633e-5</v>
+        <f t="shared" si="1"/>
+        <v>1.3247863247863249E-5</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1001,15 +988,15 @@
         <v>-5.56</v>
       </c>
       <c r="F20" s="1">
-        <f>E20/C20</f>
-        <v>-0.261401034320639</v>
+        <f t="shared" si="1"/>
+        <v>-0.26140103432063938</v>
       </c>
       <c r="G20" s="2"/>
       <c r="I20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1023,15 +1010,15 @@
         <v>0.87</v>
       </c>
       <c r="F21" s="1">
-        <f>E21/C21</f>
-        <v>0.0815370196813496</v>
+        <f t="shared" si="1"/>
+        <v>8.1537019681349576E-2</v>
       </c>
       <c r="G21" s="2"/>
       <c r="I21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1045,8 +1032,8 @@
         <v>10.48</v>
       </c>
       <c r="F22" s="1">
-        <f>E22/C22</f>
-        <v>0.416865552903739</v>
+        <f t="shared" si="1"/>
+        <v>0.41686555290373906</v>
       </c>
       <c r="G22" s="2">
         <v>0.7</v>
@@ -1055,7 +1042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1069,8 +1056,8 @@
         <v>12.53</v>
       </c>
       <c r="F23" s="1">
-        <f>E23/C23</f>
-        <v>0.377978883861237</v>
+        <f t="shared" si="1"/>
+        <v>0.37797888386123679</v>
       </c>
       <c r="G23" s="2">
         <v>0.6</v>
@@ -1079,7 +1066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1087,14 +1074,14 @@
         <v>100</v>
       </c>
       <c r="F24" s="1" t="e">
-        <f>E24/C24</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1102,14 +1089,14 @@
         <v>385</v>
       </c>
       <c r="F25" s="1">
-        <f>E25/C25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -1120,18 +1107,18 @@
         <v>97.74</v>
       </c>
       <c r="E26">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F26" s="1">
-        <f>E26/C26</f>
-        <v>0.0225086965418457</v>
+        <f t="shared" si="1"/>
+        <v>2.2508696541845716E-2</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
@@ -1145,15 +1132,16 @@
         <v>5.52</v>
       </c>
       <c r="F27" s="1">
-        <f>E27/C27</f>
-        <v>0.0100989772955963</v>
+        <f t="shared" si="1"/>
+        <v>1.0098977295596332E-2</v>
       </c>
       <c r="I27" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
@@ -1164,16 +1152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
@@ -1185,16 +1171,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">

--- a/company.xlsx
+++ b/company.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
